--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value360.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value360.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6867498876349102</v>
+        <v>0.9782881736755371</v>
       </c>
       <c r="B1">
-        <v>1.005002682833722</v>
+        <v>3.052150249481201</v>
       </c>
       <c r="C1">
-        <v>1.995329100634364</v>
+        <v>4.05931282043457</v>
       </c>
       <c r="D1">
-        <v>3.447652096326976</v>
+        <v>2.047739267349243</v>
       </c>
       <c r="E1">
-        <v>1.943951062825032</v>
+        <v>1.217458128929138</v>
       </c>
     </row>
   </sheetData>
